--- a/webclient-domain/data/test/junithelperv2/ContractDto.xlsx
+++ b/webclient-domain/data/test/junithelperv2/ContractDto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\develop\Java\workspaces\workspace_macchinetta191_webclient\webclient\webclient-domain\data\test\junithelperv2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D843AF9B-C70F-49B0-B1BE-957AFF3FC2CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A91806E-633F-4614-B3EA-AF5DDF5FA6AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="12" windowWidth="14232" windowHeight="12228" activeTab="2" xr2:uid="{96C93C1B-C7FD-4DD6-B8AD-F544DEE55A16}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{96C93C1B-C7FD-4DD6-B8AD-F544DEE55A16}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="プルダウンmap" sheetId="3" r:id="rId3"/>
     <sheet name="アサート" sheetId="4" r:id="rId4"/>
     <sheet name="アサートフロー" sheetId="5" r:id="rId5"/>
+    <sheet name="Excelデータ見直し" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="362">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -1760,6 +1761,83 @@
   </si>
   <si>
     <t>junithelperv2.target.AddressDto</t>
+  </si>
+  <si>
+    <t>class ExcelLoader {</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    ・Excelファイル読込み</t>
+    <rPh sb="14" eb="16">
+      <t>ヨミコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  }</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>class ExcelSheetDataCreater {</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  ExcelData loadExcelData() {</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  ExcelData create() {</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    ・Excelデータ生成</t>
+    <rPh sb="13" eb="15">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    ・全シートについて以下の処理を実行</t>
+    <rPh sb="5" eb="6">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 　   ・SheetDataを生成する</t>
+    <rPh sb="16" eb="18">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    ・返却</t>
+    <rPh sb="5" eb="7">
+      <t>ヘンキャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 　   ・シート名に紐づくSheetDataをMapに登録</t>
+    <rPh sb="9" eb="10">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ヒモ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -5501,6 +5579,1024 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="直線矢印コネクタ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B05AA64-E65A-44AF-80EB-B98593875613}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1272540" y="1402080"/>
+          <a:ext cx="1485900" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直線矢印コネクタ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B115324-5D66-42C3-9697-DF382765C7C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1249680" y="1546860"/>
+          <a:ext cx="1485900" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46F8AE00-7A81-401A-A8F7-D544C4F32B72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="563880" y="457200"/>
+          <a:ext cx="1135380" cy="426720"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>JunitHelper</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BCD84BC-045B-4406-89CA-6462F2452E86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2255520" y="457200"/>
+          <a:ext cx="1135380" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>ExcelLoader</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直線コネクタ 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A874BA62-E6C5-4D19-8BED-DA44A5F72EEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1127760" y="914400"/>
+          <a:ext cx="0" cy="3817620"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直線コネクタ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{654F8D58-4A01-4D9C-858D-32AD9547C6D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2819400" y="914400"/>
+          <a:ext cx="0" cy="3817620"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EBFB9F9-58EF-4A4F-B176-3C8D248424BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1524000" y="1097280"/>
+          <a:ext cx="922020" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t>loadExcelData()</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69592226-8236-45DF-81B2-57CF0F8C029E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1539240" y="1600200"/>
+          <a:ext cx="922020" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t>DtoExcelSheet</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直線コネクタ 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BD1CFA3-5CA0-44AE-A1E9-B28528F367CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1973580" y="1828800"/>
+          <a:ext cx="0" cy="3817620"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>65810</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>207818</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>232065</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>108758</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="11" name="グループ化 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE50D5AC-F33A-412B-895B-5D38702C8E25}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1191225" y="2265218"/>
+          <a:ext cx="728963" cy="129540"/>
+          <a:chOff x="3947160" y="2286000"/>
+          <a:chExt cx="1508760" cy="144780"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="12" name="直線矢印コネクタ 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEB7978B-7030-8B5B-ECAE-622F83D52C24}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3970020" y="2286000"/>
+            <a:ext cx="1485900" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="13" name="直線矢印コネクタ 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4391363C-4BDB-66E9-0DDC-29AB9C75A7F4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3947160" y="2430780"/>
+            <a:ext cx="1485900" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:headEnd type="triangle" w="med" len="med"/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>228599</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>234462</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>134814</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{226D9705-6807-4AAB-8E2F-09AA23BEBF6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3376246" y="1600199"/>
+          <a:ext cx="3610708" cy="1735015"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t>DtoExcelSheet</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t> +dtoInfo</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" baseline="0"/>
+            <a:t>+createDtoInfo()</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>169717</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>55418</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="正方形/長方形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18F524EA-4B66-49A3-A29B-D770E28299BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3552997" y="2019300"/>
+          <a:ext cx="2969722" cy="779318"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t>DtoInfo</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t> +className</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t> +dtoFieldInfo</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t> +Map&lt;String, Map&lt;String, List&lt;List&lt;Cell&gt;&gt;&gt;&gt; dtoDatas</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>234462</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>134815</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="正方形/長方形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6044DE86-599F-4197-99DE-6BC50DA8B396}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7315200" y="1600200"/>
+          <a:ext cx="3610708" cy="1735015"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t>ExcelData</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t> + Map&lt;String, SheetData&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" baseline="0"/>
+            <a:t>+createDtoInfo()</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>29040</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>219810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>178775</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>84728</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="正方形/長方形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7BE7ABE-C3B3-42DA-900C-484B719984EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8469655" y="2048610"/>
+          <a:ext cx="2963274" cy="779318"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t>SheetData</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t> +className</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t> +dtoFieldInfo</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t> +Map&lt;String, Map&lt;String, List&lt;List&lt;Cell&gt;&gt;&gt;&gt; dtoDatas</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -7243,7 +8339,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DEDB5C1-DD45-4E51-95E7-AA56DDC4C52A}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -8302,4 +9398,66 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDFDA92B-DD31-4312-BF40-946B635F0DF3}">
+  <dimension ref="AA17:AK22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="N5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AH19" sqref="AH19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="17" spans="27:37" x14ac:dyDescent="0.45">
+      <c r="AA17" t="s">
+        <v>351</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="18" spans="27:37" x14ac:dyDescent="0.45">
+      <c r="AA18" t="s">
+        <v>355</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="19" spans="27:37" x14ac:dyDescent="0.45">
+      <c r="AA19" t="s">
+        <v>352</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="20" spans="27:37" x14ac:dyDescent="0.45">
+      <c r="AA20" t="s">
+        <v>357</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="21" spans="27:37" x14ac:dyDescent="0.45">
+      <c r="AA21" t="s">
+        <v>353</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="22" spans="27:37" x14ac:dyDescent="0.45">
+      <c r="AK22" t="s">
+        <v>360</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/webclient-domain/data/test/junithelperv2/ContractDto.xlsx
+++ b/webclient-domain/data/test/junithelperv2/ContractDto.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\develop\Java\workspaces\workspace_macchinetta191_webclient\webclient\webclient-domain\data\test\junithelperv2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\develop\Java\workspaces\workspace_macchinetta191_webclient2\webclient\webclient-domain\data\test\junithelperv2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A91806E-633F-4614-B3EA-AF5DDF5FA6AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43FF9B08-7B51-4089-B060-5AD12294336D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{96C93C1B-C7FD-4DD6-B8AD-F544DEE55A16}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{96C93C1B-C7FD-4DD6-B8AD-F544DEE55A16}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="362">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -1756,13 +1756,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>junithelperv2.target.ContractDto</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>junithelperv2.target.AddressDto</t>
-  </si>
-  <si>
     <t>class ExcelLoader {</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1837,6 +1830,14 @@
     <rPh sb="28" eb="30">
       <t>トウロク</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>junithelperv2.targetdto.AddressDto</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>junithelperv2.targetdto.ContractDto</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2057,7 +2058,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2185,6 +2186,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -6896,9 +6900,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{592EB1C5-6A04-46BB-8B4E-15E1E35CE8BC}">
   <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -6931,7 +6935,7 @@
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="3" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="D2" s="4"/>
     </row>
@@ -7012,8 +7016,8 @@
         <v>13</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="8" t="s">
-        <v>42</v>
+      <c r="E6" s="43">
+        <v>1</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="7" t="s">
@@ -8021,7 +8025,7 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -8056,7 +8060,7 @@
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="3" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="D2" s="4"/>
       <c r="G2" s="5" t="s">
@@ -8383,35 +8387,35 @@
       <c r="F3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="43" t="s">
+      <c r="G3" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="H3" s="44"/>
-      <c r="I3" s="43" t="s">
+      <c r="H3" s="45"/>
+      <c r="I3" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="J3" s="44"/>
-      <c r="K3" s="43" t="s">
+      <c r="J3" s="45"/>
+      <c r="K3" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="L3" s="44"/>
+      <c r="L3" s="45"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="F4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="43" t="s">
+      <c r="G4" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="44"/>
-      <c r="I4" s="43" t="s">
+      <c r="H4" s="45"/>
+      <c r="I4" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="44"/>
-      <c r="K4" s="43" t="s">
+      <c r="J4" s="45"/>
+      <c r="K4" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="44"/>
+      <c r="L4" s="45"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="E5" s="6" t="s">
@@ -9404,55 +9408,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDFDA92B-DD31-4312-BF40-946B635F0DF3}">
   <dimension ref="AA17:AK22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AH19" sqref="AH19"/>
+    <sheetView topLeftCell="N1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="17" spans="27:37" x14ac:dyDescent="0.45">
       <c r="AA17" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="AK17" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="18" spans="27:37" x14ac:dyDescent="0.45">
       <c r="AA18" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AK18" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="19" spans="27:37" x14ac:dyDescent="0.45">
       <c r="AA19" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="AK19" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="20" spans="27:37" x14ac:dyDescent="0.45">
       <c r="AA20" t="s">
+        <v>355</v>
+      </c>
+      <c r="AK20" t="s">
         <v>357</v>
-      </c>
-      <c r="AK20" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="21" spans="27:37" x14ac:dyDescent="0.45">
       <c r="AA21" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="AK21" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="22" spans="27:37" x14ac:dyDescent="0.45">
       <c r="AK22" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
   </sheetData>

--- a/webclient-domain/data/test/junithelperv2/ContractDto.xlsx
+++ b/webclient-domain/data/test/junithelperv2/ContractDto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\develop\Java\workspaces\workspace_macchinetta191_webclient2\webclient\webclient-domain\data\test\junithelperv2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43FF9B08-7B51-4089-B060-5AD12294336D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4062416-6B7E-49D5-8656-BB147EE2E5C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{96C93C1B-C7FD-4DD6-B8AD-F544DEE55A16}"/>
+    <workbookView xWindow="1812" yWindow="12" windowWidth="19272" windowHeight="12228" xr2:uid="{96C93C1B-C7FD-4DD6-B8AD-F544DEE55A16}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="362">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -6902,7 +6902,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -7598,16 +7598,10 @@
       <c r="E28" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G28" s="16" t="s">
-        <v>174</v>
-      </c>
+      <c r="G28" s="16"/>
       <c r="H28" s="16"/>
-      <c r="I28" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="J28" s="16" t="s">
-        <v>174</v>
-      </c>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
     </row>
     <row r="29" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A29" s="13" t="s">
@@ -7699,9 +7693,7 @@
       <c r="E32" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G32" s="16" t="s">
-        <v>174</v>
-      </c>
+      <c r="G32" s="16"/>
       <c r="H32" s="16"/>
       <c r="I32" s="16" t="s">
         <v>174</v>
@@ -7800,18 +7792,10 @@
         <v>21</v>
       </c>
       <c r="F36" s="15"/>
-      <c r="G36" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="H36" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="I36" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="J36" s="16" t="s">
-        <v>174</v>
-      </c>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
     </row>
     <row r="37" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A37" s="13" t="s">
@@ -7884,18 +7868,10 @@
         <v>21</v>
       </c>
       <c r="F39" s="15"/>
-      <c r="G39" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="H39" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="I39" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="J39" s="16" t="s">
-        <v>174</v>
-      </c>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
     </row>
     <row r="40" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A40" s="13" t="s">
